--- a/public/sample/zone_bulkimport.xlsx
+++ b/public/sample/zone_bulkimport.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\easemylr-pro\public\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F38BA5-8B07-423C-88FA-C6269C25CA67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AEB40EF-67BB-4E38-A508-0CF09056FECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{85FD23C3-00A6-4522-A24E-8D9CC9FD1E86}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Primary Zone</t>
   </si>
@@ -47,13 +47,28 @@
   </si>
   <si>
     <t>Postal Code</t>
+  </si>
+  <si>
+    <t>District</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>SAS Nagar</t>
+  </si>
+  <si>
+    <t>Punjab</t>
+  </si>
+  <si>
+    <t>Ludhiana</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,6 +79,12 @@
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -94,18 +115,18 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -420,43 +441,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25DE1D91-956C-4240-920B-E8BD4D47F8B9}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
         <v>282001</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
         <v>204102</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="119" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
 </worksheet>
 </file>
--- a/public/sample/zone_bulkimport.xlsx
+++ b/public/sample/zone_bulkimport.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\easemylr-pro\public\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AEB40EF-67BB-4E38-A508-0CF09056FECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DAE2247-BFBA-406C-999B-865BFE43FD01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{85FD23C3-00A6-4522-A24E-8D9CC9FD1E86}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Primary Zone</t>
   </si>
@@ -62,6 +62,12 @@
   </si>
   <si>
     <t>Ludhiana</t>
+  </si>
+  <si>
+    <t>Hub Transfer</t>
+  </si>
+  <si>
+    <t>Karnal</t>
   </si>
 </sst>
 </file>
@@ -126,7 +132,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -441,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25DE1D91-956C-4240-920B-E8BD4D47F8B9}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -454,7 +460,7 @@
     <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -467,8 +473,11 @@
       <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>282001</v>
       </c>
@@ -481,8 +490,11 @@
       <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>204102</v>
       </c>

--- a/public/sample/zone_bulkimport.xlsx
+++ b/public/sample/zone_bulkimport.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\easemylr-pro\public\sample\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eternity projects\easemylr-pro\public\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B11E57A-4EEC-4348-BC5E-645D428F7D6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B405F1E5-89BC-44A0-BBBF-33D030BE9E07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B0FCE79D-E2DC-44B2-ACCD-71196163EF02}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Postal Code</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Pickup Hub</t>
   </si>
   <si>
-    <t>Hub Transfer</t>
-  </si>
-  <si>
     <t>Hub Transfer Id</t>
   </si>
   <si>
@@ -60,12 +57,6 @@
   </si>
   <si>
     <t>SAS Nagar</t>
-  </si>
-  <si>
-    <t>Ludhiana</t>
-  </si>
-  <si>
-    <t>Karnal</t>
   </si>
 </sst>
 </file>
@@ -451,15 +442,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDE6F59D-3A33-4BA9-974F-A3E5B6984607}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -475,27 +470,21 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>282001</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2">
+      <c r="D2" s="2">
+        <v>5</v>
+      </c>
+      <c r="E2">
         <v>29</v>
       </c>
     </row>

--- a/public/sample/zone_bulkimport.xlsx
+++ b/public/sample/zone_bulkimport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eternity projects\easemylr-pro\public\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B405F1E5-89BC-44A0-BBBF-33D030BE9E07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F274CD-045D-44E5-B4EA-0FF2CAA625CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B0FCE79D-E2DC-44B2-ACCD-71196163EF02}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Postal Code</t>
   </si>
@@ -50,13 +50,19 @@
     <t>Pickup Hub</t>
   </si>
   <si>
-    <t>Hub Transfer Id</t>
-  </si>
-  <si>
     <t>Punjab</t>
   </si>
   <si>
     <t>SAS Nagar</t>
+  </si>
+  <si>
+    <t>Delivery Hub</t>
+  </si>
+  <si>
+    <t>Ludhiana</t>
+  </si>
+  <si>
+    <t>Karnal</t>
   </si>
 </sst>
 </file>
@@ -445,7 +451,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -468,7 +474,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -476,19 +482,20 @@
         <v>282001</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2">
-        <v>5</v>
-      </c>
-      <c r="E2">
-        <v>29</v>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="119" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
 </worksheet>
 </file>
--- a/public/sample/zone_bulkimport.xlsx
+++ b/public/sample/zone_bulkimport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eternity projects\easemylr-pro\public\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F274CD-045D-44E5-B4EA-0FF2CAA625CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD158AC1-4B4E-4670-BF01-158711A0308C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B0FCE79D-E2DC-44B2-ACCD-71196163EF02}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Postal Code</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>Karnal</t>
+  </si>
+  <si>
+    <t>City</t>
   </si>
 </sst>
 </file>
@@ -128,12 +131,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -448,49 +452,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDE6F59D-3A33-4BA9-974F-A3E5B6984607}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>282001</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
     </row>

--- a/public/sample/zone_bulkimport.xlsx
+++ b/public/sample/zone_bulkimport.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\easemylr-pro\public\sample\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eternity projects\easemylr-pro\public\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DAE2247-BFBA-406C-999B-865BFE43FD01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED4760BD-9CCC-42B5-8F96-DE4F95538EF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{85FD23C3-00A6-4522-A24E-8D9CC9FD1E86}"/>
   </bookViews>
@@ -35,16 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
-  <si>
-    <t>Primary Zone</t>
-  </si>
-  <si>
-    <t>Zone 4</t>
-  </si>
-  <si>
-    <t>Zone 3</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Postal Code</t>
   </si>
@@ -64,10 +55,19 @@
     <t>Ludhiana</t>
   </si>
   <si>
-    <t>Hub Transfer</t>
-  </si>
-  <si>
     <t>Karnal</t>
+  </si>
+  <si>
+    <t>Delivery Hub</t>
+  </si>
+  <si>
+    <t>Pickup Hub</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Mohali</t>
   </si>
 </sst>
 </file>
@@ -447,66 +447,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25DE1D91-956C-4240-920B-E8BD4D47F8B9}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" customWidth="1"/>
+    <col min="3" max="3" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>282001</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
-        <v>204102</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
